--- a/medicine/Handicap/Jacques_Charlin/Jacques_Charlin.xlsx
+++ b/medicine/Handicap/Jacques_Charlin/Jacques_Charlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Charlin, né le 2 novembre 1948, est professeur de mathématiques à l'université Claude Bernard Lyon 1.
 </t>
@@ -511,7 +523,9 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 2 novembre 1948, Jacques Charlin est atteint de déficience visuelle. Il étudie à Villeurbanne où il apprend dès l’âge de six ans le braille puis obtient un baccalauréat mathématiques élémentaires, intègre une classe préparatoire au lycée du Parc et passe le concours d'entrée à l'École nationale de la statistique et de l'administration économique où il obtient la septième place. Décidant de changer d'orientation, il obtient avec succès un DEA.
 </t>
@@ -542,9 +556,11 @@
           <t>Carrière professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il commence sa carrière dans l'éducation nationale en tant qu'assistant en mathématiques au sein de l'université Toulouse III - Paul Sabatier où il enseigne pendant six ans. De retour à Lyon pour soutenir sa thèse[1] en 1980 à l'université Claude Bernard Lyon 1, il est promu en 1986 maître de conférences en mathématiques et atteint l'échelon hors-classe en septembre 2003. Il enseigne également au lycée du Parc les mathématiques spéciales et les mathématiques supérieures. Il est aussi responsable de la mission handicap à l'université Claude Bernard Lyon 1[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence sa carrière dans l'éducation nationale en tant qu'assistant en mathématiques au sein de l'université Toulouse III - Paul Sabatier où il enseigne pendant six ans. De retour à Lyon pour soutenir sa thèse en 1980 à l'université Claude Bernard Lyon 1, il est promu en 1986 maître de conférences en mathématiques et atteint l'échelon hors-classe en septembre 2003. Il enseigne également au lycée du Parc les mathématiques spéciales et les mathématiques supérieures. Il est aussi responsable de la mission handicap à l'université Claude Bernard Lyon 1.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Vie associative</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Charlin est membre du conseil d'administration de l’association « Voir ensemble » (anciennement Croisade des aveugles), il en préside le groupe du Rhône de 1971 à 1991, puis la commission solidarité internationale de « Voir ensemble ». Il est élu président national de cette association en 1979[3]. Il est aussi président de l’association lyonnaise « Les Amis des Aveugles et Déficients Visuels », trésorier de la Fédération internationale des associations catholiques d'aveugles[4], vice-président de la Confédération française pour la promotion sociale des aveugles et amblyopes[5] et trésorier de l'association française des espérantistes aveugles.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Charlin est membre du conseil d'administration de l’association « Voir ensemble » (anciennement Croisade des aveugles), il en préside le groupe du Rhône de 1971 à 1991, puis la commission solidarité internationale de « Voir ensemble ». Il est élu président national de cette association en 1979. Il est aussi président de l’association lyonnaise « Les Amis des Aveugles et Déficients Visuels », trésorier de la Fédération internationale des associations catholiques d'aveugles, vice-président de la Confédération française pour la promotion sociale des aveugles et amblyopes et trésorier de l'association française des espérantistes aveugles.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Charlin est marié et père de quatre enfants.
 </t>
@@ -635,9 +655,11 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur Il a été promu officier par décret du 30 décembre 2017[6]. Il a été décoré chevalier de la Légion d'honneur par Marie-Anne Montchamp en 2005[7] pour son engagement en faveur des personnes atteintes de déficience visuelle.</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur Il a été promu officier par décret du 30 décembre 2017. Il a été décoré chevalier de la Légion d'honneur par Marie-Anne Montchamp en 2005 pour son engagement en faveur des personnes atteintes de déficience visuelle.</t>
         </is>
       </c>
     </row>
